--- a/Prueba/NO/Med.xlsx
+++ b/Prueba/NO/Med.xlsx
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -707,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -861,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1653,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2005,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3435,7 +3435,7 @@
         <v>2</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3512,7 +3512,7 @@
         <v>2</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3622,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="C295">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3699,7 +3699,7 @@
         <v>2</v>
       </c>
       <c r="C302">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3776,7 +3776,7 @@
         <v>2</v>
       </c>
       <c r="C309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3831,7 +3831,7 @@
         <v>2</v>
       </c>
       <c r="C314">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3842,7 +3842,7 @@
         <v>2</v>
       </c>
       <c r="C315">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3919,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3952,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4084,7 +4084,7 @@
         <v>2</v>
       </c>
       <c r="C337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4304,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4326,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="C359">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4370,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="C363">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4381,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="C364">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4392,7 +4392,7 @@
         <v>2</v>
       </c>
       <c r="C365">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4469,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="C372">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4524,7 +4524,7 @@
         <v>2</v>
       </c>
       <c r="C377">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4700,7 +4700,7 @@
         <v>2</v>
       </c>
       <c r="C393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="C405">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406" spans="1:3">
